--- a/김세화/김세화근무기록.xlsx
+++ b/김세화/김세화근무기록.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ac837\Desktop\hd_stock\반은숙\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ac837\Desktop\hd_stock\김세화\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A71B2A4-A30E-4CE5-8F71-F82F283513BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-100" yWindow="-100" windowWidth="19400" windowHeight="10280"/>
+    <workbookView xWindow="5420" yWindow="3020" windowWidth="19200" windowHeight="9970" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="6월 아르바이트" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -88,7 +89,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="176" formatCode="[$₩-412]#,##0"/>
     <numFmt numFmtId="177" formatCode="h&quot;:&quot;mm"/>
@@ -560,14 +561,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <dimension ref="A1:W988"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -731,9 +732,7 @@
     </row>
     <row r="5" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="10"/>
-      <c r="B5" s="11">
-        <v>60000</v>
-      </c>
+      <c r="B5" s="11"/>
       <c r="C5" s="10"/>
       <c r="D5" s="10"/>
       <c r="E5" s="13">
@@ -743,7 +742,7 @@
         <v>0</v>
       </c>
       <c r="G5" s="14">
-        <f t="shared" ref="G4:G6" si="0">F5-E5</f>
+        <f t="shared" ref="G5:G6" si="0">F5-E5</f>
         <v>0</v>
       </c>
       <c r="H5" s="12"/>
@@ -25351,8 +25350,6 @@
     <cfRule type="notContainsBlanks" dxfId="3" priority="1">
       <formula>LEN(TRIM(E3))&gt;0</formula>
     </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E3:F30 G3:G37">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min"/>
@@ -25361,13 +25358,9 @@
         <color rgb="FFFFFFFF"/>
       </colorScale>
     </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E3:F30 G3:G37">
     <cfRule type="notContainsBlanks" dxfId="2" priority="3">
       <formula>LEN(TRIM(E3))&gt;0</formula>
     </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E3:F30 G3:G37">
     <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="min"/>
@@ -25376,13 +25369,9 @@
         <color rgb="FFFFFFFF"/>
       </colorScale>
     </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E3:F30 G3:G37">
     <cfRule type="notContainsBlanks" dxfId="1" priority="5">
       <formula>LEN(TRIM(E3))&gt;0</formula>
     </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E3:F30 G3:G37">
     <cfRule type="colorScale" priority="6">
       <colorScale>
         <cfvo type="min"/>
@@ -25391,13 +25380,9 @@
         <color rgb="FFFFFFFF"/>
       </colorScale>
     </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E3:F30 G3:G37">
     <cfRule type="notContainsBlanks" dxfId="0" priority="7">
       <formula>LEN(TRIM(E3))&gt;0</formula>
     </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E3:F30 G3:G37">
     <cfRule type="colorScale" priority="8">
       <colorScale>
         <cfvo type="min"/>
